--- a/datos1.xlsx
+++ b/datos1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eltio\IdeaProjects\SeleniumPruebaJava\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE42A26-21C9-4D65-A993-5EC77AD9BBB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E17F3D2-DDDD-4BB5-A57B-E330682DB60F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{FCD59596-70D1-4042-AFC8-982C2B0B77FF}"/>
   </bookViews>
@@ -440,12 +440,12 @@
   <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+    <col min="1" max="1" width="26.5703125" customWidth="1"/>
     <col min="5" max="5" width="19.85546875" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.5703125" customWidth="1"/>
